--- a/sputnik/personal/uch/uch133.xlsx
+++ b/sputnik/personal/uch/uch133.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9780"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Оплачено</t>
   </si>
@@ -27,34 +27,10 @@
     <t>Начислен членский взнос 2018/2019 с 01.05.2018 по 30.04.2019</t>
   </si>
   <si>
-    <t>Задолженность по оплате  членского взноса 2016/2017 за уч№133</t>
-  </si>
-  <si>
-    <t>Задолженность по оплате  ЗОП 2016/2017 за уч№133</t>
-  </si>
-  <si>
-    <t>Задолженность по оплате  членского взноса 2017/2018 за уч№133</t>
-  </si>
-  <si>
-    <t>Задолженность по оплате  ЗОП 2017/2018 за уч№133</t>
-  </si>
-  <si>
     <t>Начислены пени за просрочку оплаты ЗОП 2014 за уч№133 на 640 д.</t>
   </si>
   <si>
     <t>Начислены пени за просрочку оплаты взносов 2015/2016 за уч№133</t>
-  </si>
-  <si>
-    <t>Оплата  членского взноса 2016/2017 за уч№133</t>
-  </si>
-  <si>
-    <t>Оплата  ЗОП 2016/2017 за уч№133</t>
-  </si>
-  <si>
-    <t>Оплата  членского взноса 2017/2018 за уч№133</t>
-  </si>
-  <si>
-    <t>Оплата  ЗОП 2017/2018 за уч№133</t>
   </si>
   <si>
     <t>Начислены пени за просрочку оплаты взносов 2016/2017 на 638 д.</t>
@@ -90,12 +66,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="172" formatCode="#,##0.00\ _₽"/>
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ _₽"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,25 +193,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -296,7 +276,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -328,10 +308,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -363,7 +342,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -539,17 +517,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D12:D28"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" style="1" customWidth="1"/>
@@ -558,13 +536,13 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1"/>
+    <row r="2" spans="1:4" ht="27" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -573,320 +551,159 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+    <row r="3" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A3" s="14">
         <v>43221</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11">
-        <v>5563.81</v>
-      </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="C3" s="8">
+        <v>355.42</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" ht="18" customHeight="1">
+      <c r="A4" s="14">
         <v>43221</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="11">
-        <v>505.02</v>
+      <c r="C4" s="10">
+        <v>4240.13</v>
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+    <row r="5" spans="1:4" ht="18" customHeight="1">
+      <c r="A5" s="14">
         <v>43221</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1395.79</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" ht="18" customHeight="1">
+      <c r="A6" s="14">
+        <v>43221</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1991.02</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="18" customHeight="1">
+      <c r="A7" s="14">
+        <v>43221</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6">
+        <v>9985.2199999999993</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" ht="18" customHeight="1">
+      <c r="A8" s="14">
+        <v>43281</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="11">
-        <v>8886.58</v>
-      </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>43221</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="C8" s="6">
+        <v>3871.91</v>
+      </c>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" ht="18" customHeight="1">
+      <c r="A9" s="14">
+        <v>43281</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="11">
-        <v>505.02</v>
-      </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>43221</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="C9" s="6">
+        <v>626.66999999999996</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" ht="18" customHeight="1">
+      <c r="A10" s="14">
+        <v>43323</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="8">
-        <v>355.42</v>
-      </c>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>43221</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="C10" s="6">
+        <v>942</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" ht="18" customHeight="1">
+      <c r="A11" s="14">
+        <v>43400</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="10">
-        <v>4240.13</v>
-      </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>43221</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="10">
-        <v>1395.79</v>
-      </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>43221</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="10">
-        <f>PRODUCT(C5+C6,0.001,212)</f>
-        <v>1991.0192000000002</v>
-      </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>43221</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>2</v>
-      </c>
       <c r="C11" s="6">
-        <v>9985.2199999999993</v>
+        <v>280.67</v>
       </c>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>43281</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6">
-        <v>5563.81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>43281</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6">
-        <v>505.02</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>43281</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6">
-        <v>1790.46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>43281</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6">
-        <v>505.02</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>43281</v>
-      </c>
-      <c r="B16" s="5" t="s">
+    <row r="12" spans="1:4" ht="18" customHeight="1">
+      <c r="A12" s="15">
+        <v>43586</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="6">
-        <f>PRODUCT(C3+C4,0.001,638)</f>
-        <v>3871.91354</v>
-      </c>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>43281</v>
-      </c>
-      <c r="B17" s="5" t="s">
+      <c r="C12" s="13">
+        <v>9843.4599999999991</v>
+      </c>
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="16">
+        <v>43626</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="6">
-        <f>PRODUCT(D14+D15,0.001,273)</f>
-        <v>626.66603999999995</v>
-      </c>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>43323</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>43323</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="6">
-        <f>PRODUCT(D18,0.001,314)</f>
-        <v>942</v>
-      </c>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>43400</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6">
-        <v>717.82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>43400</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="6">
-        <f>PRODUCT(D20,0.001,391)</f>
-        <v>280.66762</v>
-      </c>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
-        <v>43555</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="14">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12">
+        <v>621.70000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="16">
+        <v>43713</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12">
         <v>2000</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="13">
-        <v>43584</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="14">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="15">
-        <v>43586</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="16">
-        <v>9843.4599999999991</v>
-      </c>
-      <c r="D24" s="14"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
-        <v>43626</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="14">
-        <v>378.3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
-        <v>43626</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="14">
-        <v>621.70000000000005</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="13">
-        <v>43713</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="14">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="13">
+    <row r="15" spans="1:4">
+      <c r="A15" s="16">
         <v>43759</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="14">
+      <c r="B15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12">
         <v>3000</v>
       </c>
     </row>
@@ -898,12 +715,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -912,12 +729,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/uch/uch133.xlsx
+++ b/sputnik/personal/uch/uch133.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9780"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Оплачено</t>
   </si>
@@ -61,17 +61,20 @@
   </si>
   <si>
     <t>Оплата пеней</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00\ _₽"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -216,6 +219,8 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -276,7 +281,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -308,9 +313,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -342,6 +348,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -517,17 +524,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" style="1" customWidth="1"/>
@@ -536,8 +543,8 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1"/>
-    <row r="2" spans="1:4" ht="27" customHeight="1">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
@@ -551,7 +558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.75" customHeight="1">
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>43221</v>
       </c>
@@ -563,7 +570,7 @@
       </c>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1">
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>43221</v>
       </c>
@@ -575,7 +582,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1">
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>43221</v>
       </c>
@@ -587,7 +594,7 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1">
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>43221</v>
       </c>
@@ -599,7 +606,7 @@
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" ht="18" customHeight="1">
+    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>43221</v>
       </c>
@@ -611,7 +618,7 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" ht="18" customHeight="1">
+    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>43281</v>
       </c>
@@ -623,7 +630,7 @@
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" ht="18" customHeight="1">
+    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>43281</v>
       </c>
@@ -635,7 +642,7 @@
       </c>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" ht="18" customHeight="1">
+    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>43323</v>
       </c>
@@ -647,7 +654,7 @@
       </c>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" ht="18" customHeight="1">
+    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>43400</v>
       </c>
@@ -659,7 +666,7 @@
       </c>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" ht="18" customHeight="1">
+    <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>43586</v>
       </c>
@@ -671,7 +678,7 @@
       </c>
       <c r="D12" s="12"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>43626</v>
       </c>
@@ -683,7 +690,7 @@
         <v>621.70000000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>43713</v>
       </c>
@@ -695,7 +702,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>43759</v>
       </c>
@@ -706,6 +713,30 @@
       <c r="D15" s="12">
         <v>3000</v>
       </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
+        <v>43952</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="18">
+        <v>11075</v>
+      </c>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -715,12 +746,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -729,12 +760,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/uch/uch133.xlsx
+++ b/sputnik/personal/uch/uch133.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Оплачено</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t>Оплачен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
@@ -531,7 +534,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -727,10 +730,16 @@
       <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
+      <c r="A17" s="17">
+        <v>44082</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="D17" s="11">
+        <v>10000</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>

--- a/sputnik/personal/uch/uch133.xlsx
+++ b/sputnik/personal/uch/uch133.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Оплачено</t>
   </si>
@@ -534,7 +534,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -742,10 +742,16 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
+      <c r="A18" s="17">
+        <v>44147</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="D18" s="11">
+        <v>1000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch133.xlsx
+++ b/sputnik/personal/uch/uch133.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Оплачено</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>Оплачен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t>Оплачен членский взнос 2019/2020</t>
+  </si>
+  <si>
+    <t>Оплачен членский взнос 2018/2019</t>
   </si>
 </sst>
 </file>
@@ -94,7 +100,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,6 +119,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -178,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -187,9 +205,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -222,8 +237,21 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -531,10 +559,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -548,10 +576,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -562,196 +590,238 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+      <c r="A3" s="13">
         <v>43221</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>355.42</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+      <c r="A4" s="13">
         <v>43221</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>4240.13</v>
       </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+      <c r="A5" s="13">
         <v>43221</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>1395.79</v>
       </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+      <c r="A6" s="13">
         <v>43221</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>1991.02</v>
       </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="A7" s="19">
         <v>43221</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="21">
         <v>9985.2199999999993</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+      <c r="A8" s="13">
         <v>43281</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>3871.91</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+      <c r="A9" s="13">
         <v>43281</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>626.66999999999996</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+      <c r="A10" s="13">
         <v>43323</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>942</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+      <c r="A11" s="13">
         <v>43400</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>280.67</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+      <c r="A12" s="14">
         <v>43586</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <v>9843.4599999999991</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
+      <c r="A13" s="15">
         <v>43626</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12">
+      <c r="C13" s="10"/>
+      <c r="D13" s="11">
         <v>621.70000000000005</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
+      <c r="A14" s="15">
         <v>43713</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12">
+      <c r="C14" s="10"/>
+      <c r="D14" s="11">
         <v>2000</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
+      <c r="A15" s="15">
         <v>43759</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12">
+      <c r="C15" s="10"/>
+      <c r="D15" s="11">
         <v>3000</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
+      <c r="A16" s="16">
         <v>43952</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="17" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="18">
         <v>11075</v>
       </c>
-      <c r="D16" s="11"/>
+      <c r="D16" s="17"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="17">
+      <c r="A17" s="16">
         <v>44082</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11">
+      <c r="C17" s="17"/>
+      <c r="D17" s="17">
         <v>10000</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
+      <c r="A18" s="16">
         <v>44147</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11">
+      <c r="C18" s="17"/>
+      <c r="D18" s="17">
         <v>1000</v>
       </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="22">
+        <v>44180</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="22">
+        <v>44195</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23">
+        <v>4985.22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="24">
+        <v>44195</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12">
+        <v>5014.78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch133.xlsx
+++ b/sputnik/personal/uch/uch133.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Оплачено</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Оплачен членский взнос 2018/2019</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
   </si>
 </sst>
 </file>
@@ -196,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -252,6 +255,7 @@
     <xf numFmtId="14" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -561,8 +565,8 @@
   </sheetPr>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -818,9 +822,15 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
+      <c r="A22" s="25">
+        <v>44317</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="10">
+        <v>11885.38</v>
+      </c>
       <c r="D22" s="10"/>
     </row>
   </sheetData>

--- a/sputnik/personal/uch/uch133.xlsx
+++ b/sputnik/personal/uch/uch133.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Оплачено</t>
   </si>
@@ -76,6 +76,18 @@
   </si>
   <si>
     <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
+  </si>
+  <si>
+    <t>Начислены пени за просрочку оплаты взносов 2020/2021 на 40 д.</t>
+  </si>
+  <si>
+    <t>Начислены пени за просрочку оплаты взносов 2018/2019 на 807 д.</t>
+  </si>
+  <si>
+    <t>Начислены пени за просрочку оплаты взносов 2018/2019 на 822 д.</t>
+  </si>
+  <si>
+    <t>Начислены пени за просрочку оплаты взносов 2019/2020 на 425 д.</t>
   </si>
 </sst>
 </file>
@@ -199,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -256,6 +268,9 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -563,10 +578,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -574,7 +589,7 @@
     <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -786,57 +801,122 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="22">
-        <v>44180</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23">
-        <v>5000</v>
-      </c>
+      <c r="A19" s="27">
+        <v>44147</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="28">
+        <v>40</v>
+      </c>
+      <c r="D19" s="28"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
-        <v>44195</v>
+        <v>44180</v>
       </c>
       <c r="B20" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="23">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="27">
+        <v>44180</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="28">
+        <v>4035</v>
+      </c>
+      <c r="D21" s="28"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="22">
+        <v>44195</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23">
         <v>4985.22</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="24">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="27">
+        <v>44560</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="28">
+        <v>4097.8500000000004</v>
+      </c>
+      <c r="D23" s="28"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="24">
         <v>44195</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B24" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12">
+      <c r="C24" s="12"/>
+      <c r="D24" s="12">
         <v>5014.78</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="27">
+        <v>44560</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="28">
+        <v>2052.19</v>
+      </c>
+      <c r="D25" s="28"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="25">
         <v>44317</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B26" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="10">
-        <v>11885.38</v>
-      </c>
-      <c r="D22" s="10"/>
+      <c r="C26" s="10">
+        <v>11810.38</v>
+      </c>
+      <c r="D26" s="10"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="26">
+        <f>SUM(C3:C26)</f>
+        <v>66642.709999999992</v>
+      </c>
+      <c r="D27" s="26">
+        <f>SUM(D3:D26)</f>
+        <v>31621.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="10"/>
+      <c r="D28" s="26">
+        <f>SUM(D27,-C27)</f>
+        <v>-35021.009999999995</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
